--- a/biology/Zoologie/Eobalaenoptera/Eobalaenoptera.xlsx
+++ b/biology/Zoologie/Eobalaenoptera/Eobalaenoptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eobalaenoptera harrisoni
 Eobalaenoptera est un genre éteint de baleines. Ses restes fossiles ont été découverts en 1990 dans le comté de Caroline (Virginie) par des chercheurs du Muséum d'histoire naturelle de Virginie (États-Unis) dans la « formation de Calvert » datée du Miocène moyen.
@@ -515,7 +527,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre, « Eobalaenoptera », reflète la similarité entre ce squelette et les espèces du genre Balaenoptera, telles que la Baleine de Minke ; « eo » est un préfixe qui signifie « aube ». L'espèce est nommée d'après Carter Harrison, un bénévole du Muséum d'histoire naturelle de Virginie.
 </t>
@@ -546,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Alton C. Dooley Jr, Nicholas C. Fraser et Zhe-Xi Luo, « The earliest known member of the rorqual—gray whale clade (Mammalia, Cetacea) », Journal of Vertebrate Paleontology, SVP et Taylor &amp; Francis, vol. 24, no 2,‎ 11 juin 2004, p. 453-463 (ISSN 0272-4634 et 1937-2809, OCLC 238100068, DOI 10.1671/2401, lire en ligne)</t>
         </is>
